--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.02961253499682</v>
+        <v>90.02298695105328</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4153448888439864</v>
+        <v>0.3994443690774587</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.95119969109989</v>
+        <v>88.94232732391542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.396502035914877</v>
+        <v>0.3828579640979561</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.98979171801578</v>
+        <v>87.94553981413377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3914735984302749</v>
+        <v>0.3925713104803884</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.95514409418404</v>
+        <v>86.95386070219146</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3635264939980273</v>
+        <v>0.3869013907263975</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.9767418969885</v>
+        <v>86.00542693272941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4251342717718883</v>
+        <v>0.3866522151213418</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.97151677306842</v>
+        <v>85.05063698610029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4074550267918047</v>
+        <v>0.3904669792927324</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99816418125015</v>
+        <v>83.99917651890357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4440721671504346</v>
+        <v>0.3840013848673492</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.9809912832294</v>
+        <v>82.99914636441501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3768814306688816</v>
+        <v>0.3620425455691502</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.99910592836638</v>
+        <v>81.95281490449175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4243727675378594</v>
+        <v>0.3978650428757814</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.96208283312636</v>
+        <v>80.95406742033532</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3528207767123893</v>
+        <v>0.3938993081183236</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.98115996953189</v>
+        <v>79.96532991882412</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3785010656904928</v>
+        <v>0.3745501327082972</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.0042663477553</v>
+        <v>78.98284222553221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3940258128074443</v>
+        <v>0.3873802828741045</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01379138631</v>
+        <v>78.02826315235106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3697292092523882</v>
+        <v>0.395400682662933</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98309713324208</v>
+        <v>76.98263489436869</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3832480994302613</v>
+        <v>0.3700067995704363</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.04253805704148</v>
+        <v>75.91921232116232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4021061471783088</v>
+        <v>0.4071391314502892</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.00787675542378</v>
+        <v>75.05943404808278</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3134949119063712</v>
+        <v>0.3896781742134334</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02670938083199</v>
+        <v>74.01579482756978</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3202739745372292</v>
+        <v>0.3976962844488962</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.02231157801526</v>
+        <v>72.9781727827787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4004244921084243</v>
+        <v>0.4007960716532477</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.92843085678705</v>
+        <v>71.99609774955978</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3915283527327323</v>
+        <v>0.416220550485203</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.94339042098572</v>
+        <v>71.09486466382354</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3872637572397954</v>
+        <v>0.4199714330160473</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.00763164909897</v>
+        <v>70.01564695243607</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3430691134832831</v>
+        <v>0.3244288732671145</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.95187188374422</v>
+        <v>69.04299857457775</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3922314557644311</v>
+        <v>0.3525324427834436</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97759132616616</v>
+        <v>68.01829212410063</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3337011914717652</v>
+        <v>0.354738393542411</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99061835437581</v>
+        <v>67.01357615803121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3615086376626975</v>
+        <v>0.419008623017458</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.97131577297874</v>
+        <v>66.0153435711761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3960609185672884</v>
+        <v>0.3505483585589985</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.01154744198537</v>
+        <v>64.97065128988099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3141182375984531</v>
+        <v>0.4068710200710279</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.01548979357466</v>
+        <v>63.99357917773165</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3501636562194018</v>
+        <v>0.3520405445615432</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04398789849565</v>
+        <v>63.04854311236309</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3873654004917712</v>
+        <v>0.3727501135372188</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99072569074084</v>
+        <v>61.97554072297762</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3559813854309838</v>
+        <v>0.3833129224141704</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.99936465600938</v>
+        <v>60.97585516139721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3535948653614254</v>
+        <v>0.4112173755967508</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.06490843061844</v>
+        <v>60.00601021890842</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4112893663342104</v>
+        <v>0.3627270961934337</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01939675253934</v>
+        <v>59.0126580471654</v>
       </c>
       <c r="D33" t="n">
-        <v>0.410530088867592</v>
+        <v>0.3419473257885264</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.01248475121939</v>
+        <v>57.98448885876395</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3730022432742065</v>
+        <v>0.3880750007298308</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.95452462065844</v>
+        <v>56.97067544282196</v>
       </c>
       <c r="D35" t="n">
-        <v>0.331658145807118</v>
+        <v>0.3681759023490955</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.98054292171406</v>
+        <v>55.99191189203341</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3840409489162194</v>
+        <v>0.3454645655032294</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.95822651915122</v>
+        <v>54.98984381635116</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3938010132521481</v>
+        <v>0.3556251615361082</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.02139676215054</v>
+        <v>53.97480355043957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3663472037140251</v>
+        <v>0.4002685073683853</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.03301777430895</v>
+        <v>52.98204793033459</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3621139266399136</v>
+        <v>0.3820072323644979</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.01045703508142</v>
+        <v>52.01160578815676</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3982751942935201</v>
+        <v>0.3337322830553819</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.947841924657</v>
+        <v>51.02232155506223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3920497272266832</v>
+        <v>0.3771695874486439</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.98505121161763</v>
+        <v>50.01543245515091</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3489002942370399</v>
+        <v>0.4385404211602021</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.9750006778075</v>
+        <v>48.96626317923708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3260303350633391</v>
+        <v>0.3790202383876159</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.96374531757446</v>
+        <v>48.03541335547224</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3687771312956469</v>
+        <v>0.3706374192881777</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.97404354775582</v>
+        <v>47.00635280825618</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3767353231142484</v>
+        <v>0.3671610945373224</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.9886035462744</v>
+        <v>45.98965078788926</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3668156342499988</v>
+        <v>0.4301169758397708</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.95695020799505</v>
+        <v>44.95484926374635</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3978643881870645</v>
+        <v>0.3633578025322922</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.97095469441651</v>
+        <v>44.02153791045097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4088837885897591</v>
+        <v>0.3721790175018776</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.94656927473882</v>
+        <v>43.01333192179265</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3654730259195981</v>
+        <v>0.3580913335450329</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.9998292299963</v>
+        <v>42.06081875996239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3193941369298298</v>
+        <v>0.3645994211677527</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.06890331585611</v>
+        <v>41.02905624727833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3865703810169286</v>
+        <v>0.3728932730160516</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.97878324413087</v>
+        <v>40.0209714266892</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3608184553181428</v>
+        <v>0.3274452961611443</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.99920703152907</v>
+        <v>39.02013740301047</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4131580774713852</v>
+        <v>0.3691363075283746</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.94284264763102</v>
+        <v>37.97823840300004</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3357997589355803</v>
+        <v>0.3416858763796302</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03027250968724</v>
+        <v>37.01630724034703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3276629331123531</v>
+        <v>0.3584084909455653</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.96200247832806</v>
+        <v>35.97543767967538</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3365236682263389</v>
+        <v>0.3944068535068849</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.03057750470563</v>
+        <v>34.94938497585142</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3460497898408401</v>
+        <v>0.3631276758012238</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.03168022092348</v>
+        <v>33.9617034767816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3418368619634391</v>
+        <v>0.3608416011941065</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.0211952331126</v>
+        <v>32.95287179923805</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3407880342281044</v>
+        <v>0.3560430277928309</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.94583699465829</v>
+        <v>32.02082698595709</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3756048924335559</v>
+        <v>0.3674589093949168</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.96081813159072</v>
+        <v>30.97645981942689</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4142584862805324</v>
+        <v>0.3816647781547092</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.98888431906021</v>
+        <v>29.95772717386006</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3344051266692557</v>
+        <v>0.3526592825747793</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.94860725204006</v>
+        <v>28.99368464984215</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3454759143747574</v>
+        <v>0.3062605948344413</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.94103334849469</v>
+        <v>27.99124289034382</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3232841778669474</v>
+        <v>0.3586523212340269</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.06236921447365</v>
+        <v>26.88357662150622</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3489879246991051</v>
+        <v>0.3422993271112828</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.0355484967023</v>
+        <v>25.95241055155865</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3601598144353018</v>
+        <v>0.3840853644236167</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02272807281101</v>
+        <v>25.08974584277907</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3654362083507347</v>
+        <v>0.3951341980527224</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.00364238845416</v>
+        <v>24.0168614169791</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3587336441242032</v>
+        <v>0.4025969039227602</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.9440157555451</v>
+        <v>23.02310362382729</v>
       </c>
       <c r="D69" t="n">
-        <v>0.347409408178389</v>
+        <v>0.36825004984964</v>
       </c>
     </row>
   </sheetData>
